--- a/biology/Botanique/Euphorbia_tirucalli/Euphorbia_tirucalli.xlsx
+++ b/biology/Botanique/Euphorbia_tirucalli/Euphorbia_tirucalli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphorbia tirucalli (l’euphorbe antivénérienne) est une espèce de plantes à fleurs de la famille des Euphorbiacées. C'est une plante ligneuse qui pousse en Afrique dans des climats tropicaux semi-arides.
 </t>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition est vaste en Afrique. Elle est présente au Nord-Est, au centre et au sud du continent. Elle est également indigène dans les îles au large de l'Afrique ainsi que dans la Péninsule arabique.
-Elle a été introduite dans d'autres régions tropicales, notamment dans le sous-continent indien. Elle est connue sous le nom de Kalli en tamoul et est abondante au Sri Lanka[2].
+Elle a été introduite dans d'autres régions tropicales, notamment dans le sous-continent indien. Elle est connue sous le nom de Kalli en tamoul et est abondante au Sri Lanka.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sève laiteuse est toxique et provoque des irritations de peau. Elle peut servir à la fabrication de biocarburant. Le chimiste américain Melvin Calvin a notamment proposé l'exploitation d'E. tirucalli à cette fin puisque la plante a la capacité de croître sur des terrains désolés et arides. Il estimait qu'il serait possible de réaliser la production de 10 à 50 barils d'équivalent pétrole par acre. La plante fut aussi exploitée, sans grand succès, pour la production de caoutchouc[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sève laiteuse est toxique et provoque des irritations de peau. Elle peut servir à la fabrication de biocarburant. Le chimiste américain Melvin Calvin a notamment proposé l'exploitation d'E. tirucalli à cette fin puisque la plante a la capacité de croître sur des terrains désolés et arides. Il estimait qu'il serait possible de réaliser la production de 10 à 50 barils d'équivalent pétrole par acre. La plante fut aussi exploitée, sans grand succès, pour la production de caoutchouc.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Euphorbia tirucalli » (voir la liste des auteurs).</t>
         </is>
